--- a/FileComparison/Primary Key/Primary_key.xlsx
+++ b/FileComparison/Primary Key/Primary_key.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngupta5\Desktop\ChargePoint\FileComparison\Primary Key\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngupta5\chargepoint_repo\FileComparison\Primary Key\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A5E1A1-4C00-4A5B-A145-AF0139A1FD45}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D334BCF7-3D0F-420B-BB72-EA48ED20BA91}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{1D72B8E1-0937-413F-9ED7-86C28E9E69CC}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>Primary_key1</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>realDonaldTrump</t>
+  </si>
+  <si>
+    <t>jshdjs</t>
   </si>
 </sst>
 </file>
@@ -482,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3625CFAB-520E-440D-8ABC-3421C7D4A4C9}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -585,6 +588,11 @@
       <c r="H3"/>
       <c r="I3" s="3"/>
     </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
